--- a/Lab4 - Photoelectric Effect/Experiment .xlsx
+++ b/Lab4 - Photoelectric Effect/Experiment .xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/t905k768_home_ku_edu/Documents/PHSX 616/GitHub/PHSX616/Lab4 - Photoelectric Effect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="690" documentId="8_{815DA9DA-EEA1-4F15-BC6C-79DBF2B13E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFDDA76D-C938-446C-B411-0A26979F88C0}"/>
+  <xr:revisionPtr revIDLastSave="691" documentId="8_{815DA9DA-EEA1-4F15-BC6C-79DBF2B13E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A981E147-6510-4C2B-BCF9-97D10FD405E6}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{B4EC2E35-03E0-4218-B9E1-B03C228EF9DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B4EC2E35-03E0-4218-B9E1-B03C228EF9DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="1-ap2_t1" sheetId="2" r:id="rId2"/>
-    <sheet name="1-ap2_t2" sheetId="3" r:id="rId3"/>
+    <sheet name="2-ap2_t2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2156,7 +2156,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1-ap2_t2'!$A$2:$A$22</c:f>
+              <c:f>'2-ap2_t2'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2228,7 +2228,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1-ap2_t2'!$B$2:$B$22</c:f>
+              <c:f>'2-ap2_t2'!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2334,7 +2334,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1-ap2_t2'!$A$2:$A$22</c:f>
+              <c:f>'2-ap2_t2'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2406,7 +2406,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1-ap2_t2'!$C$2:$C$22</c:f>
+              <c:f>'2-ap2_t2'!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2512,7 +2512,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1-ap2_t2'!$A$2:$A$22</c:f>
+              <c:f>'2-ap2_t2'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2584,7 +2584,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1-ap2_t2'!$D$2:$D$22</c:f>
+              <c:f>'2-ap2_t2'!$D$2:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2690,7 +2690,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1-ap2_t2'!$A$2:$A$22</c:f>
+              <c:f>'2-ap2_t2'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2762,7 +2762,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1-ap2_t2'!$E$2:$E$22</c:f>
+              <c:f>'2-ap2_t2'!$E$2:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2868,7 +2868,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1-ap2_t2'!$A$2:$A$22</c:f>
+              <c:f>'2-ap2_t2'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2940,7 +2940,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1-ap2_t2'!$F$2:$F$22</c:f>
+              <c:f>'2-ap2_t2'!$F$2:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -4730,7 +4730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B194152-B288-4AFE-BC10-02D24C820687}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B24" sqref="B24:B28"/>
     </sheetView>
   </sheetViews>
@@ -5911,8 +5911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5BF6FE-8556-4231-A2E8-901300CB79CB}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Lab4 - Photoelectric Effect/Experiment .xlsx
+++ b/Lab4 - Photoelectric Effect/Experiment .xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/t905k768_home_ku_edu/Documents/PHSX 616/GitHub/PHSX616/Lab4 - Photoelectric Effect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="691" documentId="8_{815DA9DA-EEA1-4F15-BC6C-79DBF2B13E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A981E147-6510-4C2B-BCF9-97D10FD405E6}"/>
+  <xr:revisionPtr revIDLastSave="1291" documentId="8_{815DA9DA-EEA1-4F15-BC6C-79DBF2B13E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4801C668-78FE-4937-A9DE-81AF6B8F629C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B4EC2E35-03E0-4218-B9E1-B03C228EF9DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{B4EC2E35-03E0-4218-B9E1-B03C228EF9DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="1-ap2_t1" sheetId="2" r:id="rId2"/>
     <sheet name="2-ap2_t2" sheetId="3" r:id="rId3"/>
+    <sheet name="3-ap2_t0" sheetId="4" r:id="rId4"/>
+    <sheet name="4-ap8_t0" sheetId="5" r:id="rId5"/>
+    <sheet name="5-ap4_t0" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
   <si>
     <t>Thresa Kelly</t>
   </si>
@@ -126,12 +129,36 @@
   <si>
     <t>1-ap2_t2</t>
   </si>
+  <si>
+    <t>I_356 [1e-13 A]</t>
+  </si>
+  <si>
+    <t>I_405 [1e-13 A]</t>
+  </si>
+  <si>
+    <t>I_436 [1e-13 A]</t>
+  </si>
+  <si>
+    <t>I_546 [1e-13 A]</t>
+  </si>
+  <si>
+    <t>I_577 [1e-13 A]</t>
+  </si>
+  <si>
+    <t>3-ap2_t0</t>
+  </si>
+  <si>
+    <t>4-ap8_t0</t>
+  </si>
+  <si>
+    <t>5-ap4_t0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +209,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -203,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -212,6 +279,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3235,6 +3308,3747 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3-ap2_t0'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I_356 [1e-13 A]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3-ap2_t0'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.60000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3-ap2_t0'!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1055</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3CCE-4543-A252-8E70F459CA68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3-ap2_t0'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I_405 [1e-13 A]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3-ap2_t0'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.60000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3-ap2_t0'!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3CCE-4543-A252-8E70F459CA68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3-ap2_t0'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I_436 [1e-13 A]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3-ap2_t0'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.60000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3-ap2_t0'!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3CCE-4543-A252-8E70F459CA68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3-ap2_t0'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I_546 [1e-13 A]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3-ap2_t0'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.60000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3-ap2_t0'!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3CCE-4543-A252-8E70F459CA68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3-ap2_t0'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I_577 [1e-13 A]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3-ap2_t0'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.60000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3-ap2_t0'!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3CCE-4543-A252-8E70F459CA68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="542414128"/>
+        <c:axId val="542419760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="542414128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542419760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="542419760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542414128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4-ap8_t0'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I_356 [1e-13 A]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4-ap8_t0'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.60000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4-ap8_t0'!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF53-4915-A661-20693A127416}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4-ap8_t0'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I_405 [1e-13 A]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4-ap8_t0'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.60000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4-ap8_t0'!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>938</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF53-4915-A661-20693A127416}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4-ap8_t0'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I_436 [1e-13 A]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4-ap8_t0'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.60000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4-ap8_t0'!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CF53-4915-A661-20693A127416}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4-ap8_t0'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I_546 [1e-13 A]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4-ap8_t0'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.60000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4-ap8_t0'!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CF53-4915-A661-20693A127416}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4-ap8_t0'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I_577 [1e-13 A]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4-ap8_t0'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.60000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4-ap8_t0'!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CF53-4915-A661-20693A127416}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="542414128"/>
+        <c:axId val="542419760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="542414128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542419760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="542419760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542414128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5-ap4_t0'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I_356 [1e-13 A]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5-ap4_t0'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.60000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5-ap4_t0'!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1112</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1411</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1883</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE2E-4A8A-978F-554964CD11D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5-ap4_t0'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I_405 [1e-13 A]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5-ap4_t0'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.60000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5-ap4_t0'!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1074</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE2E-4A8A-978F-554964CD11D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5-ap4_t0'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I_436 [1e-13 A]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5-ap4_t0'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.60000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5-ap4_t0'!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1483</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1910</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EE2E-4A8A-978F-554964CD11D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5-ap4_t0'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I_546 [1e-13 A]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5-ap4_t0'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.60000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5-ap4_t0'!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1637</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EE2E-4A8A-978F-554964CD11D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5-ap4_t0'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I_577 [1e-13 A]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5-ap4_t0'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.60000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5-ap4_t0'!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>876</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EE2E-4A8A-978F-554964CD11D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="542414128"/>
+        <c:axId val="542419760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="542414128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542419760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="542419760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542414128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3315,6 +7129,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3832,6 +7766,1554 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4429,6 +9911,137 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318CDF6B-F925-46DA-D4E4-9508EAF75205}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39364F7-715B-4CB3-A4AA-9A328A8C899A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB487163-7D45-48B8-91A9-92E94F0B65AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4728,10 +10341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B194152-B288-4AFE-BC10-02D24C820687}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B28"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4822,6 +10435,9 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>45246</v>
+      </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -4875,67 +10491,127 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>16</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>45246</v>
+      </c>
+      <c r="B23" t="s">
         <v>17</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
-        <v>21</v>
+      <c r="B27" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="7" t="s">
-        <v>24</v>
+      <c r="B28" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>45251</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>45251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>45258</v>
       </c>
     </row>
   </sheetData>
@@ -4947,8 +10623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FC3F51-0910-49D2-810F-8EBE5A7D1DF6}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5105,7 +10781,7 @@
       <c r="A8" s="2">
         <v>-1.5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="11">
         <v>10</v>
       </c>
       <c r="C8" s="4">
@@ -5131,7 +10807,7 @@
       <c r="C9" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="10">
         <v>4</v>
       </c>
       <c r="E9" s="6">
@@ -5148,13 +10824,13 @@
       <c r="B10" s="3">
         <v>70</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="9">
         <v>10</v>
       </c>
       <c r="D10" s="5">
         <v>19</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="12">
         <v>11</v>
       </c>
       <c r="F10" s="7">
@@ -5177,7 +10853,7 @@
       <c r="E11" s="6">
         <v>66</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="13">
         <v>35</v>
       </c>
     </row>
@@ -5911,8 +11587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5BF6FE-8556-4231-A2E8-901300CB79CB}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6009,16 +11685,16 @@
       <c r="A5" s="2">
         <v>-1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="11">
         <v>40</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="9">
         <v>7</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="10">
         <v>5</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="12">
         <v>2</v>
       </c>
       <c r="F5" s="7">
@@ -6041,7 +11717,7 @@
       <c r="E6" s="6">
         <v>65</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="13">
         <v>40</v>
       </c>
     </row>
@@ -6363,6 +12039,1498 @@
       </c>
       <c r="F22" s="7">
         <v>740</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F344941C-AC9C-4F74-BD23-F5C5500F48FD}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>-4.2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>-4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>-3.8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>-3.6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>-3.4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>-3.2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>-3</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>-2.8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>-2.6</v>
+      </c>
+      <c r="B12" s="11">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>-2.4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="B14" s="3">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>-2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>-1.8</v>
+      </c>
+      <c r="B16" s="3">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>-1.6</v>
+      </c>
+      <c r="B17" s="3">
+        <v>83</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>3</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>-1.4</v>
+      </c>
+      <c r="B18" s="3">
+        <v>192</v>
+      </c>
+      <c r="C18" s="9">
+        <v>9</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4</v>
+      </c>
+      <c r="E18" s="6">
+        <v>3</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>-1.2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>304</v>
+      </c>
+      <c r="C19" s="4">
+        <v>34</v>
+      </c>
+      <c r="D19" s="10">
+        <v>11</v>
+      </c>
+      <c r="E19" s="6">
+        <v>3</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B20" s="3">
+        <v>394</v>
+      </c>
+      <c r="C20" s="4">
+        <v>73</v>
+      </c>
+      <c r="D20" s="5">
+        <v>58</v>
+      </c>
+      <c r="E20" s="6">
+        <v>3</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="B21" s="3">
+        <v>504</v>
+      </c>
+      <c r="C21" s="4">
+        <v>109</v>
+      </c>
+      <c r="D21" s="5">
+        <v>120</v>
+      </c>
+      <c r="E21" s="12">
+        <v>5</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>-0.60000000000000098</v>
+      </c>
+      <c r="B22" s="3">
+        <v>662</v>
+      </c>
+      <c r="C22" s="4">
+        <v>155</v>
+      </c>
+      <c r="D22" s="5">
+        <v>198</v>
+      </c>
+      <c r="E22" s="6">
+        <v>49</v>
+      </c>
+      <c r="F22" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="B23" s="3">
+        <v>835</v>
+      </c>
+      <c r="C23" s="4">
+        <v>209</v>
+      </c>
+      <c r="D23" s="5">
+        <v>274</v>
+      </c>
+      <c r="E23" s="6">
+        <v>185</v>
+      </c>
+      <c r="F23" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1055</v>
+      </c>
+      <c r="C24" s="4">
+        <v>277</v>
+      </c>
+      <c r="D24" s="5">
+        <v>370</v>
+      </c>
+      <c r="E24" s="6">
+        <v>390</v>
+      </c>
+      <c r="F24" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1293</v>
+      </c>
+      <c r="C25" s="4">
+        <v>362</v>
+      </c>
+      <c r="D25" s="5">
+        <v>480</v>
+      </c>
+      <c r="E25" s="6">
+        <v>607</v>
+      </c>
+      <c r="F25" s="7">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DDFAED-1A2A-4BA2-88DD-6FEA0314657B}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>-4.2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>-4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>-3.8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>-3.6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>-3.4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>-3.2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>-3</v>
+      </c>
+      <c r="B10" s="11">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>-2.8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>-2.6</v>
+      </c>
+      <c r="B12" s="3">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>-2.4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="B14" s="3">
+        <v>52</v>
+      </c>
+      <c r="C14" s="4">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>-2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>93</v>
+      </c>
+      <c r="C15" s="9">
+        <v>11</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4</v>
+      </c>
+      <c r="F15" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>-1.8</v>
+      </c>
+      <c r="B16" s="3">
+        <v>255</v>
+      </c>
+      <c r="C16" s="4">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5">
+        <v>7</v>
+      </c>
+      <c r="E16" s="6">
+        <v>6</v>
+      </c>
+      <c r="F16" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>-1.6</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1089</v>
+      </c>
+      <c r="C17" s="4">
+        <v>32</v>
+      </c>
+      <c r="D17" s="10">
+        <v>16</v>
+      </c>
+      <c r="E17" s="6">
+        <v>8</v>
+      </c>
+      <c r="F17" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>-1.4</v>
+      </c>
+      <c r="C18" s="4">
+        <v>98</v>
+      </c>
+      <c r="D18" s="5">
+        <v>36</v>
+      </c>
+      <c r="E18" s="6">
+        <v>9</v>
+      </c>
+      <c r="F18" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>-1.2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>455</v>
+      </c>
+      <c r="D19" s="5">
+        <v>166</v>
+      </c>
+      <c r="E19" s="12">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>938</v>
+      </c>
+      <c r="D20" s="5">
+        <v>819</v>
+      </c>
+      <c r="E20" s="6">
+        <v>13</v>
+      </c>
+      <c r="F20" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1596</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1925</v>
+      </c>
+      <c r="E21" s="6">
+        <v>40</v>
+      </c>
+      <c r="F21" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>-0.60000000000000098</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1139</v>
+      </c>
+      <c r="F22" s="7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52DF17A-5BBF-42A6-8286-D4A7E46A5C91}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>-4.2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>-4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>-3.8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>-3.6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>-3.4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>-3.2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>-3</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>-2.8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>-2.6</v>
+      </c>
+      <c r="B12" s="3">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>-2.4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="B14" s="11">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>-2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>-1.8</v>
+      </c>
+      <c r="B16" s="3">
+        <v>68</v>
+      </c>
+      <c r="C16" s="4">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>-1.6</v>
+      </c>
+      <c r="B17" s="3">
+        <v>344</v>
+      </c>
+      <c r="C17" s="9">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5">
+        <v>7</v>
+      </c>
+      <c r="E17" s="6">
+        <v>5</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>-1.4</v>
+      </c>
+      <c r="B18" s="3">
+        <v>749</v>
+      </c>
+      <c r="C18" s="4">
+        <v>38</v>
+      </c>
+      <c r="D18" s="10">
+        <v>13</v>
+      </c>
+      <c r="E18" s="6">
+        <v>5</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>-1.2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1112</v>
+      </c>
+      <c r="C19" s="4">
+        <v>147</v>
+      </c>
+      <c r="D19" s="5">
+        <v>59</v>
+      </c>
+      <c r="E19" s="6">
+        <v>5</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1411</v>
+      </c>
+      <c r="C20" s="4">
+        <v>288</v>
+      </c>
+      <c r="D20" s="5">
+        <v>260</v>
+      </c>
+      <c r="E20" s="6">
+        <v>6</v>
+      </c>
+      <c r="F20" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1883</v>
+      </c>
+      <c r="C21" s="4">
+        <v>439</v>
+      </c>
+      <c r="D21" s="5">
+        <v>525</v>
+      </c>
+      <c r="E21" s="12">
+        <v>16</v>
+      </c>
+      <c r="F21" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>-0.60000000000000098</v>
+      </c>
+      <c r="C22" s="4">
+        <v>615</v>
+      </c>
+      <c r="D22" s="5">
+        <v>781</v>
+      </c>
+      <c r="E22" s="6">
+        <v>308</v>
+      </c>
+      <c r="F22" s="13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="C23" s="4">
+        <v>828</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1138</v>
+      </c>
+      <c r="E23" s="6">
+        <v>855</v>
+      </c>
+      <c r="F23" s="7">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1074</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1483</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1637</v>
+      </c>
+      <c r="F24" s="7">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1350</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1910</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1564</v>
       </c>
     </row>
   </sheetData>

--- a/Lab4 - Photoelectric Effect/Experiment .xlsx
+++ b/Lab4 - Photoelectric Effect/Experiment .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/t905k768_home_ku_edu/Documents/PHSX 616/GitHub/PHSX616/Lab4 - Photoelectric Effect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1291" documentId="8_{815DA9DA-EEA1-4F15-BC6C-79DBF2B13E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4801C668-78FE-4937-A9DE-81AF6B8F629C}"/>
+  <xr:revisionPtr revIDLastSave="1294" documentId="8_{815DA9DA-EEA1-4F15-BC6C-79DBF2B13E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CB14553-5612-49AB-B34C-341DDE3B7082}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{B4EC2E35-03E0-4218-B9E1-B03C228EF9DB}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="1-ap2_t1" sheetId="2" r:id="rId2"/>
     <sheet name="2-ap2_t2" sheetId="3" r:id="rId3"/>
     <sheet name="3-ap2_t0" sheetId="4" r:id="rId4"/>
-    <sheet name="4-ap8_t0" sheetId="5" r:id="rId5"/>
-    <sheet name="5-ap4_t0" sheetId="7" r:id="rId6"/>
+    <sheet name="5-ap4_t0" sheetId="7" r:id="rId5"/>
+    <sheet name="4-ap8_t0" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4606,7 +4606,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4-ap8_t0'!$B$1</c:f>
+              <c:f>'5-ap4_t0'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4641,7 +4641,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'4-ap8_t0'!$A$2:$A$25</c:f>
+              <c:f>'5-ap4_t0'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4722,7 +4722,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4-ap8_t0'!$B$2:$B$25</c:f>
+              <c:f>'5-ap4_t0'!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4733,46 +4733,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>93</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>255</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1089</c:v>
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1112</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1411</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4780,7 +4792,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CF53-4915-A661-20693A127416}"/>
+              <c16:uniqueId val="{00000000-EE2E-4A8A-978F-554964CD11D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4789,7 +4801,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4-ap8_t0'!$C$1</c:f>
+              <c:f>'5-ap4_t0'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4824,7 +4836,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'4-ap8_t0'!$A$2:$A$25</c:f>
+              <c:f>'5-ap4_t0'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4905,7 +4917,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4-ap8_t0'!$C$2:$C$25</c:f>
+              <c:f>'5-ap4_t0'!$C$2:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4931,43 +4943,55 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>18</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>98</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>455</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>938</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1596</c:v>
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1074</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4975,7 +4999,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CF53-4915-A661-20693A127416}"/>
+              <c16:uniqueId val="{00000001-EE2E-4A8A-978F-554964CD11D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4984,7 +5008,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4-ap8_t0'!$D$1</c:f>
+              <c:f>'5-ap4_t0'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5019,7 +5043,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'4-ap8_t0'!$A$2:$A$25</c:f>
+              <c:f>'5-ap4_t0'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5100,7 +5124,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4-ap8_t0'!$D$2:$D$25</c:f>
+              <c:f>'5-ap4_t0'!$D$2:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5138,31 +5162,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>36</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>166</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>819</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1925</c:v>
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1483</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1910</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5170,7 +5206,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CF53-4915-A661-20693A127416}"/>
+              <c16:uniqueId val="{00000002-EE2E-4A8A-978F-554964CD11D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5179,7 +5215,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4-ap8_t0'!$E$1</c:f>
+              <c:f>'5-ap4_t0'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5214,7 +5250,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'4-ap8_t0'!$A$2:$A$25</c:f>
+              <c:f>'5-ap4_t0'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5295,7 +5331,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4-ap8_t0'!$E$2:$E$25</c:f>
+              <c:f>'5-ap4_t0'!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5330,37 +5366,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>40</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1139</c:v>
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5368,7 +5410,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CF53-4915-A661-20693A127416}"/>
+              <c16:uniqueId val="{00000003-EE2E-4A8A-978F-554964CD11D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5377,7 +5419,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4-ap8_t0'!$F$1</c:f>
+              <c:f>'5-ap4_t0'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5412,7 +5454,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'4-ap8_t0'!$A$2:$A$25</c:f>
+              <c:f>'5-ap4_t0'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5493,7 +5535,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4-ap8_t0'!$F$2:$F$25</c:f>
+              <c:f>'5-ap4_t0'!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5519,49 +5561,55 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>17</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>93</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1216</c:v>
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>876</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5569,7 +5617,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CF53-4915-A661-20693A127416}"/>
+              <c16:uniqueId val="{00000004-EE2E-4A8A-978F-554964CD11D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5816,7 +5864,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5-ap4_t0'!$B$1</c:f>
+              <c:f>'4-ap8_t0'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5851,7 +5899,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'5-ap4_t0'!$A$2:$A$25</c:f>
+              <c:f>'4-ap8_t0'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5932,7 +5980,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5-ap4_t0'!$B$2:$B$25</c:f>
+              <c:f>'4-ap8_t0'!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5943,58 +5991,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>68</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>749</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1112</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1411</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1883</c:v>
+                  <c:v>1089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6002,7 +6038,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EE2E-4A8A-978F-554964CD11D0}"/>
+              <c16:uniqueId val="{00000000-CF53-4915-A661-20693A127416}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6011,7 +6047,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5-ap4_t0'!$C$1</c:f>
+              <c:f>'4-ap8_t0'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6046,7 +6082,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'5-ap4_t0'!$A$2:$A$25</c:f>
+              <c:f>'4-ap8_t0'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6127,7 +6163,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5-ap4_t0'!$C$2:$C$25</c:f>
+              <c:f>'4-ap8_t0'!$C$2:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6153,55 +6189,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>147</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>288</c:v>
+                  <c:v>938</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>439</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>615</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>828</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1074</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1350</c:v>
+                  <c:v>1596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6209,7 +6233,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EE2E-4A8A-978F-554964CD11D0}"/>
+              <c16:uniqueId val="{00000001-CF53-4915-A661-20693A127416}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6218,7 +6242,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5-ap4_t0'!$D$1</c:f>
+              <c:f>'4-ap8_t0'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6253,7 +6277,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'5-ap4_t0'!$A$2:$A$25</c:f>
+              <c:f>'4-ap8_t0'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6334,7 +6358,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5-ap4_t0'!$D$2:$D$25</c:f>
+              <c:f>'4-ap8_t0'!$D$2:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6372,43 +6396,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>59</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>260</c:v>
+                  <c:v>819</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>781</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1138</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1483</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1910</c:v>
+                  <c:v>1925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6416,7 +6428,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EE2E-4A8A-978F-554964CD11D0}"/>
+              <c16:uniqueId val="{00000002-CF53-4915-A661-20693A127416}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6425,7 +6437,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5-ap4_t0'!$E$1</c:f>
+              <c:f>'4-ap8_t0'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6460,7 +6472,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'5-ap4_t0'!$A$2:$A$25</c:f>
+              <c:f>'4-ap8_t0'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6541,7 +6553,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5-ap4_t0'!$E$2:$E$25</c:f>
+              <c:f>'4-ap8_t0'!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6576,43 +6588,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>855</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1637</c:v>
+                  <c:v>1139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6620,7 +6626,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EE2E-4A8A-978F-554964CD11D0}"/>
+              <c16:uniqueId val="{00000003-CF53-4915-A661-20693A127416}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6629,7 +6635,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5-ap4_t0'!$F$1</c:f>
+              <c:f>'4-ap8_t0'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6664,7 +6670,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'5-ap4_t0'!$A$2:$A$25</c:f>
+              <c:f>'4-ap8_t0'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6745,7 +6751,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5-ap4_t0'!$F$2:$F$25</c:f>
+              <c:f>'4-ap8_t0'!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6771,55 +6777,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>47</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>876</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1564</c:v>
+                  <c:v>1216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6827,7 +6827,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EE2E-4A8A-978F-554964CD11D0}"/>
+              <c16:uniqueId val="{00000004-CF53-4915-A661-20693A127416}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9974,7 +9974,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39364F7-715B-4CB3-A4AA-9A328A8C899A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB487163-7D45-48B8-91A9-92E94F0B65AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10017,7 +10017,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB487163-7D45-48B8-91A9-92E94F0B65AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39364F7-715B-4CB3-A4AA-9A328A8C899A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10038,10 +10038,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12051,530 +12047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F344941C-AC9C-4F74-BD23-F5C5500F48FD}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>-4.5</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>-4.4000000000000004</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>-4.2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>-4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>-3.8</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>-3.6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>-3.4</v>
-      </c>
-      <c r="B8" s="3">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>-3.2</v>
-      </c>
-      <c r="B9" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>-3</v>
-      </c>
-      <c r="B10" s="3">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>-2.8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>-2.6</v>
-      </c>
-      <c r="B12" s="11">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>-2.4</v>
-      </c>
-      <c r="B13" s="3">
-        <v>7</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
-        <v>2</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="B14" s="3">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6">
-        <v>2</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>-2</v>
-      </c>
-      <c r="B15" s="3">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2</v>
-      </c>
-      <c r="E15" s="6">
-        <v>2</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>-1.8</v>
-      </c>
-      <c r="B16" s="3">
-        <v>22</v>
-      </c>
-      <c r="C16" s="4">
-        <v>3</v>
-      </c>
-      <c r="D16" s="5">
-        <v>2</v>
-      </c>
-      <c r="E16" s="6">
-        <v>2</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>-1.6</v>
-      </c>
-      <c r="B17" s="3">
-        <v>83</v>
-      </c>
-      <c r="C17" s="4">
-        <v>4</v>
-      </c>
-      <c r="D17" s="5">
-        <v>2</v>
-      </c>
-      <c r="E17" s="6">
-        <v>3</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>-1.4</v>
-      </c>
-      <c r="B18" s="3">
-        <v>192</v>
-      </c>
-      <c r="C18" s="9">
-        <v>9</v>
-      </c>
-      <c r="D18" s="5">
-        <v>4</v>
-      </c>
-      <c r="E18" s="6">
-        <v>3</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>-1.2</v>
-      </c>
-      <c r="B19" s="3">
-        <v>304</v>
-      </c>
-      <c r="C19" s="4">
-        <v>34</v>
-      </c>
-      <c r="D19" s="10">
-        <v>11</v>
-      </c>
-      <c r="E19" s="6">
-        <v>3</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>-1</v>
-      </c>
-      <c r="B20" s="3">
-        <v>394</v>
-      </c>
-      <c r="C20" s="4">
-        <v>73</v>
-      </c>
-      <c r="D20" s="5">
-        <v>58</v>
-      </c>
-      <c r="E20" s="6">
-        <v>3</v>
-      </c>
-      <c r="F20" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>-0.8</v>
-      </c>
-      <c r="B21" s="3">
-        <v>504</v>
-      </c>
-      <c r="C21" s="4">
-        <v>109</v>
-      </c>
-      <c r="D21" s="5">
-        <v>120</v>
-      </c>
-      <c r="E21" s="12">
-        <v>5</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>-0.60000000000000098</v>
-      </c>
-      <c r="B22" s="3">
-        <v>662</v>
-      </c>
-      <c r="C22" s="4">
-        <v>155</v>
-      </c>
-      <c r="D22" s="5">
-        <v>198</v>
-      </c>
-      <c r="E22" s="6">
-        <v>49</v>
-      </c>
-      <c r="F22" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>-0.4</v>
-      </c>
-      <c r="B23" s="3">
-        <v>835</v>
-      </c>
-      <c r="C23" s="4">
-        <v>209</v>
-      </c>
-      <c r="D23" s="5">
-        <v>274</v>
-      </c>
-      <c r="E23" s="6">
-        <v>185</v>
-      </c>
-      <c r="F23" s="7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1055</v>
-      </c>
-      <c r="C24" s="4">
-        <v>277</v>
-      </c>
-      <c r="D24" s="5">
-        <v>370</v>
-      </c>
-      <c r="E24" s="6">
-        <v>390</v>
-      </c>
-      <c r="F24" s="7">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>0</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1293</v>
-      </c>
-      <c r="C25" s="4">
-        <v>362</v>
-      </c>
-      <c r="D25" s="5">
-        <v>480</v>
-      </c>
-      <c r="E25" s="6">
-        <v>607</v>
-      </c>
-      <c r="F25" s="7">
-        <v>344</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DDFAED-1A2A-4BA2-88DD-6FEA0314657B}">
-  <dimension ref="A1:F25"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12672,7 +12146,7 @@
         <v>-4</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -12692,7 +12166,7 @@
         <v>-3.8</v>
       </c>
       <c r="B6" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -12712,7 +12186,7 @@
         <v>-3.6</v>
       </c>
       <c r="B7" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
@@ -12732,10 +12206,10 @@
         <v>-3.4</v>
       </c>
       <c r="B8" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
@@ -12752,7 +12226,7 @@
         <v>-3.2</v>
       </c>
       <c r="B9" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -12764,18 +12238,18 @@
         <v>0</v>
       </c>
       <c r="F9" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>-3</v>
       </c>
-      <c r="B10" s="11">
-        <v>11</v>
+      <c r="B10" s="3">
+        <v>4</v>
       </c>
       <c r="C10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="5">
         <v>0</v>
@@ -12784,7 +12258,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -12792,10 +12266,10 @@
         <v>-2.8</v>
       </c>
       <c r="B11" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C11" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="5">
         <v>0</v>
@@ -12804,27 +12278,27 @@
         <v>0</v>
       </c>
       <c r="F11" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>-2.6</v>
       </c>
-      <c r="B12" s="3">
-        <v>17</v>
+      <c r="B12" s="11">
+        <v>6</v>
       </c>
       <c r="C12" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
       </c>
       <c r="F12" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -12832,19 +12306,19 @@
         <v>-2.4</v>
       </c>
       <c r="B13" s="3">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="6">
         <v>2</v>
       </c>
       <c r="F13" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -12852,19 +12326,19 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="B14" s="3">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C14" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
         <v>2</v>
       </c>
-      <c r="E14" s="6">
-        <v>4</v>
-      </c>
       <c r="F14" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -12872,19 +12346,19 @@
         <v>-2</v>
       </c>
       <c r="B15" s="3">
-        <v>93</v>
-      </c>
-      <c r="C15" s="9">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
       </c>
       <c r="D15" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -12892,19 +12366,19 @@
         <v>-1.8</v>
       </c>
       <c r="B16" s="3">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D16" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E16" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F16" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -12912,116 +12386,179 @@
         <v>-1.6</v>
       </c>
       <c r="B17" s="3">
-        <v>1089</v>
+        <v>83</v>
       </c>
       <c r="C17" s="4">
-        <v>32</v>
-      </c>
-      <c r="D17" s="10">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2</v>
       </c>
       <c r="E17" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F17" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>-1.4</v>
       </c>
-      <c r="C18" s="4">
-        <v>98</v>
+      <c r="B18" s="3">
+        <v>192</v>
+      </c>
+      <c r="C18" s="9">
+        <v>9</v>
       </c>
       <c r="D18" s="5">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E18" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F18" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>-1.2</v>
       </c>
+      <c r="B19" s="3">
+        <v>304</v>
+      </c>
       <c r="C19" s="4">
-        <v>455</v>
-      </c>
-      <c r="D19" s="5">
-        <v>166</v>
-      </c>
-      <c r="E19" s="12">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="D19" s="10">
+        <v>11</v>
+      </c>
+      <c r="E19" s="6">
+        <v>3</v>
       </c>
       <c r="F19" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>-1</v>
       </c>
+      <c r="B20" s="3">
+        <v>394</v>
+      </c>
       <c r="C20" s="4">
-        <v>938</v>
+        <v>73</v>
       </c>
       <c r="D20" s="5">
-        <v>819</v>
+        <v>58</v>
       </c>
       <c r="E20" s="6">
-        <v>13</v>
-      </c>
-      <c r="F20" s="13">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>-0.8</v>
       </c>
+      <c r="B21" s="3">
+        <v>504</v>
+      </c>
       <c r="C21" s="4">
-        <v>1596</v>
+        <v>109</v>
       </c>
       <c r="D21" s="5">
-        <v>1925</v>
-      </c>
-      <c r="E21" s="6">
-        <v>40</v>
+        <v>120</v>
+      </c>
+      <c r="E21" s="12">
+        <v>5</v>
       </c>
       <c r="F21" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>-0.60000000000000098</v>
       </c>
+      <c r="B22" s="3">
+        <v>662</v>
+      </c>
+      <c r="C22" s="4">
+        <v>155</v>
+      </c>
+      <c r="D22" s="5">
+        <v>198</v>
+      </c>
       <c r="E22" s="6">
-        <v>1139</v>
-      </c>
-      <c r="F22" s="7">
-        <v>93</v>
+        <v>49</v>
+      </c>
+      <c r="F22" s="13">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>-0.4</v>
       </c>
+      <c r="B23" s="3">
+        <v>835</v>
+      </c>
+      <c r="C23" s="4">
+        <v>209</v>
+      </c>
+      <c r="D23" s="5">
+        <v>274</v>
+      </c>
+      <c r="E23" s="6">
+        <v>185</v>
+      </c>
       <c r="F23" s="7">
-        <v>1216</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>-0.2</v>
       </c>
+      <c r="B24" s="3">
+        <v>1055</v>
+      </c>
+      <c r="C24" s="4">
+        <v>277</v>
+      </c>
+      <c r="D24" s="5">
+        <v>370</v>
+      </c>
+      <c r="E24" s="6">
+        <v>390</v>
+      </c>
+      <c r="F24" s="7">
+        <v>195</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>0</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1293</v>
+      </c>
+      <c r="C25" s="4">
+        <v>362</v>
+      </c>
+      <c r="D25" s="5">
+        <v>480</v>
+      </c>
+      <c r="E25" s="6">
+        <v>607</v>
+      </c>
+      <c r="F25" s="7">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -13030,12 +12567,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52DF17A-5BBF-42A6-8286-D4A7E46A5C91}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13537,4 +13074,465 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DDFAED-1A2A-4BA2-88DD-6FEA0314657B}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>-4.2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>-4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>-3.8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>-3.6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>-3.4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>-3.2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>-3</v>
+      </c>
+      <c r="B10" s="11">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>-2.8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>-2.6</v>
+      </c>
+      <c r="B12" s="3">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>-2.4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="B14" s="3">
+        <v>52</v>
+      </c>
+      <c r="C14" s="4">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>-2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>93</v>
+      </c>
+      <c r="C15" s="9">
+        <v>11</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4</v>
+      </c>
+      <c r="F15" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>-1.8</v>
+      </c>
+      <c r="B16" s="3">
+        <v>255</v>
+      </c>
+      <c r="C16" s="4">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5">
+        <v>7</v>
+      </c>
+      <c r="E16" s="6">
+        <v>6</v>
+      </c>
+      <c r="F16" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>-1.6</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1089</v>
+      </c>
+      <c r="C17" s="4">
+        <v>32</v>
+      </c>
+      <c r="D17" s="10">
+        <v>16</v>
+      </c>
+      <c r="E17" s="6">
+        <v>8</v>
+      </c>
+      <c r="F17" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>-1.4</v>
+      </c>
+      <c r="C18" s="4">
+        <v>98</v>
+      </c>
+      <c r="D18" s="5">
+        <v>36</v>
+      </c>
+      <c r="E18" s="6">
+        <v>9</v>
+      </c>
+      <c r="F18" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>-1.2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>455</v>
+      </c>
+      <c r="D19" s="5">
+        <v>166</v>
+      </c>
+      <c r="E19" s="12">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>938</v>
+      </c>
+      <c r="D20" s="5">
+        <v>819</v>
+      </c>
+      <c r="E20" s="6">
+        <v>13</v>
+      </c>
+      <c r="F20" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1596</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1925</v>
+      </c>
+      <c r="E21" s="6">
+        <v>40</v>
+      </c>
+      <c r="F21" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>-0.60000000000000098</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1139</v>
+      </c>
+      <c r="F22" s="7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>